--- a/FigureData/DfU_step_down.xlsx
+++ b/FigureData/DfU_step_down.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kai/Downloads/Github/yeast-polarity-negative-feedback/FigureData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C43F977-73E8-8247-B1B5-AFF5ABAF6861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC927EF-C802-B74D-9942-FDF974457442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20020" yWindow="4740" windowWidth="27640" windowHeight="16940" xr2:uid="{730BCB00-8DF0-9C47-B455-C9A61CE159E8}"/>
+    <workbookView xWindow="15620" yWindow="2160" windowWidth="33600" windowHeight="18900" xr2:uid="{730BCB00-8DF0-9C47-B455-C9A61CE159E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,21 +468,19 @@
         <v>50</v>
       </c>
       <c r="B2" s="3">
-        <v>0.44968220718685858</v>
+        <v>0.45578930005812918</v>
       </c>
       <c r="C2" s="3">
-        <v>1.461709112238522E-2</v>
+        <v>1.9867233887334058E-2</v>
       </c>
       <c r="D2" s="3">
-        <v>6.5369618765924098E-3</v>
+        <v>8.1107642707498578E-3</v>
       </c>
       <c r="E2" s="3">
-        <f>B2-D2</f>
-        <v>0.44314524531026617</v>
+        <v>0.44767853578737932</v>
       </c>
       <c r="F2" s="3">
-        <f>B2+D2</f>
-        <v>0.456219169063451</v>
+        <v>0.46390006432887904</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -490,21 +488,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="3">
-        <v>0.44344951033484975</v>
+        <v>0.45210883266954538</v>
       </c>
       <c r="C3" s="3">
-        <v>2.8494391353647626E-2</v>
+        <v>2.9826531780974688E-2</v>
       </c>
       <c r="D3" s="3">
-        <v>1.4247195676823813E-2</v>
+        <v>1.2176630610048996E-2</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E13" si="0">B3-D3</f>
-        <v>0.42920231465802594</v>
+        <v>0.4399322020594964</v>
       </c>
       <c r="F3" s="3">
-        <f t="shared" ref="F3:F13" si="1">B3+D3</f>
-        <v>0.45769670601167356</v>
+        <v>0.46428546327959436</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -512,21 +508,19 @@
         <v>9</v>
       </c>
       <c r="B4" s="3">
-        <v>0.43571653671877192</v>
+        <v>0.43769740448309269</v>
       </c>
       <c r="C4" s="3">
-        <v>3.4850353513841484E-2</v>
+        <v>2.6531154169388376E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>1.7425176756920742E-2</v>
+        <v>1.0831298333685997E-2</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>0.41829135996185118</v>
+        <v>0.42686610614940668</v>
       </c>
       <c r="F4" s="3">
-        <f t="shared" si="1"/>
-        <v>0.45314171347569265</v>
+        <v>0.4485287028167787</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -534,21 +528,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="3">
-        <v>0.43654325962395901</v>
+        <v>0.43754998689354546</v>
       </c>
       <c r="C5" s="3">
-        <v>3.0603758649404803E-2</v>
+        <v>2.6801106932816537E-2</v>
       </c>
       <c r="D5" s="3">
-        <v>1.3686416941413258E-2</v>
+        <v>1.0941506087861539E-2</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>0.42285684268254575</v>
+        <v>0.42660848080568392</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" si="1"/>
-        <v>0.45022967656537227</v>
+        <v>0.448491492981407</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -556,21 +548,19 @@
         <v>7</v>
       </c>
       <c r="B6" s="3">
-        <v>0.44863502905082592</v>
+        <v>0.44256506237239268</v>
       </c>
       <c r="C6" s="3">
-        <v>2.7212304936701324E-2</v>
+        <v>2.175696286837181E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>1.2169712732583453E-2</v>
+        <v>8.8822428966985369E-3</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>0.43646531631824248</v>
+        <v>0.43368281947569415</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="1"/>
-        <v>0.46080474178340936</v>
+        <v>0.45144730526909121</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -578,21 +568,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>0.45717277616777408</v>
+        <v>0.44274920821125219</v>
       </c>
       <c r="C7" s="3">
-        <v>2.9841042451488164E-2</v>
+        <v>3.3092830945666465E-2</v>
       </c>
       <c r="D7" s="3">
-        <v>1.3345319888196901E-2</v>
+        <v>1.3510091660177959E-2</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>0.44382745627957715</v>
+        <v>0.42923911655107422</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="1"/>
-        <v>0.470518096055971</v>
+        <v>0.45625929987143016</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -600,21 +588,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="3">
-        <v>0.4607948762374014</v>
+        <v>0.44852971849173889</v>
       </c>
       <c r="C8" s="3">
-        <v>1.2137581897491728E-2</v>
+        <v>3.8540802691049467E-2</v>
       </c>
       <c r="D8" s="3">
-        <v>5.4280916410524771E-3</v>
+        <v>1.7235970944918685E-2</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>0.45536678459634894</v>
+        <v>0.43129374754682021</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="1"/>
-        <v>0.46622296787845385</v>
+        <v>0.46576568943665758</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -622,21 +608,19 @@
         <v>4</v>
       </c>
       <c r="B9" s="3">
-        <v>0.46500124698738565</v>
+        <v>0.46395682247367259</v>
       </c>
       <c r="C9" s="3">
-        <v>4.2966520707445409E-2</v>
+        <v>4.0350557339464625E-2</v>
       </c>
       <c r="D9" s="3">
-        <v>1.9215212211700056E-2</v>
+        <v>2.0175278669732313E-2</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.44578603477568557</v>
+        <v>0.4437815438039403</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="1"/>
-        <v>0.48421645919908574</v>
+        <v>0.48413210114340488</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -644,21 +628,19 @@
         <v>3</v>
       </c>
       <c r="B10" s="3">
-        <v>0.45979451473258565</v>
+        <v>0.46673257200150264</v>
       </c>
       <c r="C10" s="3">
-        <v>5.3050840664745115E-2</v>
+        <v>2.9800667697528038E-2</v>
       </c>
       <c r="D10" s="3">
-        <v>2.3725057197976039E-2</v>
+        <v>1.4900333848764019E-2</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>0.43606945753460963</v>
+        <v>0.45183223815273865</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="1"/>
-        <v>0.48351957193056166</v>
+        <v>0.48163290585026663</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -666,21 +648,19 @@
         <v>2</v>
       </c>
       <c r="B11" s="3">
-        <v>0.46274461110863579</v>
+        <v>0.47535889736623227</v>
       </c>
       <c r="C11" s="3">
-        <v>6.0541128998614864E-2</v>
+        <v>3.0658059178088476E-2</v>
       </c>
       <c r="D11" s="3">
-        <v>2.7074815975097321E-2</v>
+        <v>1.5329029589044238E-2</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>0.43566979513353848</v>
+        <v>0.46002986777718802</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.48981942708373311</v>
+        <v>0.49068792695527652</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -688,21 +668,19 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>0.44269666115892209</v>
+        <v>0.46150050940936937</v>
       </c>
       <c r="C12" s="3">
-        <v>6.9447352732665418E-2</v>
+        <v>2.8009228132464453E-2</v>
       </c>
       <c r="D12" s="3">
-        <v>3.105780031352913E-2</v>
+        <v>1.4004614066232227E-2</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>0.41163886084539297</v>
+        <v>0.44749589534313716</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="1"/>
-        <v>0.4737544614724512</v>
+        <v>0.47550512347560159</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -710,21 +688,19 @@
         <v>0</v>
       </c>
       <c r="B13" s="3">
-        <v>0.45024053061950992</v>
+        <v>0.46788216400969285</v>
       </c>
       <c r="C13" s="3">
-        <v>6.9292078369116508E-2</v>
+        <v>3.5803131335212769E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>3.0988359507117452E-2</v>
+        <v>1.7901565667606385E-2</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>0.41925217111239244</v>
+        <v>0.44998059834208648</v>
       </c>
       <c r="F13" s="3">
-        <f t="shared" si="1"/>
-        <v>0.4812288901266274</v>
+        <v>0.48578372967729921</v>
       </c>
     </row>
   </sheetData>
